--- a/src/main/java/com/excel/MISData.xlsx
+++ b/src/main/java/com/excel/MISData.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\Rohith\MISProject\src\main\java\com\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login_details" sheetId="1" r:id="rId1"/>
     <sheet name="test_data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -43,12 +38,24 @@
   </si>
   <si>
     <t>tata123</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>dsads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -155,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -207,7 +214,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -401,23 +408,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -433,12 +440,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -447,20 +470,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="6.17578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.421875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.9296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -482,6 +505,22 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
